--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H2">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N2">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q2">
-        <v>4.178669523192</v>
+        <v>0.9732798371833334</v>
       </c>
       <c r="R2">
-        <v>37.608025708728</v>
+        <v>8.759518534650001</v>
       </c>
       <c r="S2">
-        <v>0.0720205469992647</v>
+        <v>0.01334278464499617</v>
       </c>
       <c r="T2">
-        <v>0.07202054699926472</v>
+        <v>0.01334278464499617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H3">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P3">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q3">
-        <v>10.410993660654</v>
+        <v>2.753896982923889</v>
       </c>
       <c r="R3">
-        <v>93.698942945886</v>
+        <v>24.785072846315</v>
       </c>
       <c r="S3">
-        <v>0.1794364101024714</v>
+        <v>0.03775343223383419</v>
       </c>
       <c r="T3">
-        <v>0.1794364101024714</v>
+        <v>0.03775343223383419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H4">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I4">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J4">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N4">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q4">
-        <v>2.212357464558</v>
+        <v>0.5359004813444445</v>
       </c>
       <c r="R4">
-        <v>19.911217181022</v>
+        <v>4.8231043321</v>
       </c>
       <c r="S4">
-        <v>0.03813060445939755</v>
+        <v>0.007346710001125621</v>
       </c>
       <c r="T4">
-        <v>0.03813060445939757</v>
+        <v>0.007346710001125622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H5">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I5">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J5">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N5">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O5">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P5">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q5">
-        <v>3.08384847378</v>
+        <v>0.8293938780222222</v>
       </c>
       <c r="R5">
-        <v>27.75463626402</v>
+        <v>7.464544902199999</v>
       </c>
       <c r="S5">
-        <v>0.05315099763496617</v>
+        <v>0.01137023852498055</v>
       </c>
       <c r="T5">
-        <v>0.05315099763496618</v>
+        <v>0.01137023852498055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H6">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I6">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J6">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N6">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O6">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P6">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q6">
-        <v>2.090676271283999</v>
+        <v>0.5663147287444444</v>
       </c>
       <c r="R6">
-        <v>18.816086441556</v>
+        <v>5.0968325587</v>
       </c>
       <c r="S6">
-        <v>0.03603339479721244</v>
+        <v>0.007763661773569863</v>
       </c>
       <c r="T6">
-        <v>0.03603339479721245</v>
+        <v>0.007763661773569864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H7">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N7">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q7">
-        <v>2.019862798080445</v>
+        <v>3.67944417594</v>
       </c>
       <c r="R7">
-        <v>18.178765182724</v>
+        <v>33.11499758346</v>
       </c>
       <c r="S7">
-        <v>0.03481290462761846</v>
+        <v>0.05044184557951051</v>
       </c>
       <c r="T7">
-        <v>0.03481290462761846</v>
+        <v>0.05044184557951052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H8">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I8">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J8">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P8">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q8">
-        <v>5.032410117501445</v>
+        <v>10.410993660654</v>
       </c>
       <c r="R8">
-        <v>45.29169105751301</v>
+        <v>93.698942945886</v>
       </c>
       <c r="S8">
-        <v>0.08673500677082258</v>
+        <v>0.1427252893233011</v>
       </c>
       <c r="T8">
-        <v>0.08673500677082259</v>
+        <v>0.1427252893233011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H9">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I9">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J9">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N9">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q9">
-        <v>1.069397451489</v>
+        <v>2.02594960836</v>
       </c>
       <c r="R9">
-        <v>9.624577063401002</v>
+        <v>18.23354647524</v>
       </c>
       <c r="S9">
-        <v>0.01843136648839952</v>
+        <v>0.02777393334705435</v>
       </c>
       <c r="T9">
-        <v>0.01843136648839953</v>
+        <v>0.02777393334705436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H10">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I10">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J10">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N10">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O10">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P10">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q10">
-        <v>1.49065408799</v>
+        <v>3.13548925752</v>
       </c>
       <c r="R10">
-        <v>13.41588679191</v>
+        <v>28.21940331768</v>
       </c>
       <c r="S10">
-        <v>0.02569184335058914</v>
+        <v>0.04298471654448521</v>
       </c>
       <c r="T10">
-        <v>0.02569184335058914</v>
+        <v>0.04298471654448522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H11">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I11">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J11">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N11">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O11">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P11">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q11">
-        <v>1.010579850777555</v>
+        <v>2.14092941292</v>
       </c>
       <c r="R11">
-        <v>9.095218656998</v>
+        <v>19.26836471628</v>
       </c>
       <c r="S11">
-        <v>0.01741762856226969</v>
+        <v>0.02935020228036305</v>
       </c>
       <c r="T11">
-        <v>0.0174176285622697</v>
+        <v>0.02935020228036305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H12">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I12">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J12">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N12">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q12">
-        <v>1.409402274615555</v>
+        <v>1.88379972807</v>
       </c>
       <c r="R12">
-        <v>12.68462047154</v>
+        <v>16.95419755263</v>
       </c>
       <c r="S12">
-        <v>0.0242914454460811</v>
+        <v>0.02582518729524009</v>
       </c>
       <c r="T12">
-        <v>0.02429144544608111</v>
+        <v>0.02582518729524009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H13">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I13">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J13">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P13">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q13">
-        <v>3.511471310400555</v>
+        <v>5.330214589236999</v>
       </c>
       <c r="R13">
-        <v>31.603241793605</v>
+        <v>47.971931303133</v>
       </c>
       <c r="S13">
-        <v>0.06052119775054362</v>
+        <v>0.07307241212519787</v>
       </c>
       <c r="T13">
-        <v>0.06052119775054363</v>
+        <v>0.07307241212519788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H14">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I14">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J14">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N14">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q14">
-        <v>0.7461948415649999</v>
+        <v>1.03724452358</v>
       </c>
       <c r="R14">
-        <v>6.715753574085</v>
+        <v>9.335200712219999</v>
       </c>
       <c r="S14">
-        <v>0.01286087841100414</v>
+        <v>0.01421968253486243</v>
       </c>
       <c r="T14">
-        <v>0.01286087841100414</v>
+        <v>0.01421968253486243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H15">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I15">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J15">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N15">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O15">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P15">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q15">
-        <v>1.04013562915</v>
+        <v>1.60530599956</v>
       </c>
       <c r="R15">
-        <v>9.36122066235</v>
+        <v>14.44775399604</v>
       </c>
       <c r="S15">
-        <v>0.01792703073287888</v>
+        <v>0.0220072906302432</v>
       </c>
       <c r="T15">
-        <v>0.01792703073287889</v>
+        <v>0.0220072906302432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H16">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I16">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J16">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N16">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O16">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P16">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q16">
-        <v>0.7051536083144443</v>
+        <v>1.09611181826</v>
       </c>
       <c r="R16">
-        <v>6.34638247483</v>
+        <v>9.865006364339999</v>
       </c>
       <c r="S16">
-        <v>0.01215352118837038</v>
+        <v>0.01502669980321751</v>
       </c>
       <c r="T16">
-        <v>0.01215352118837039</v>
+        <v>0.01502669980321751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H17">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I17">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J17">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N17">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O17">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P17">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q17">
-        <v>3.424216753062667</v>
+        <v>2.860432959670001</v>
       </c>
       <c r="R17">
-        <v>30.817950777564</v>
+        <v>25.74389663703</v>
       </c>
       <c r="S17">
-        <v>0.05901734086193925</v>
+        <v>0.03921394393906118</v>
       </c>
       <c r="T17">
-        <v>0.05901734086193924</v>
+        <v>0.03921394393906119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H18">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I18">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J18">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>79.438063</v>
       </c>
       <c r="O18">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P18">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q18">
-        <v>8.531303734593667</v>
+        <v>8.093600007463667</v>
       </c>
       <c r="R18">
-        <v>76.781733611343</v>
+        <v>72.842400067173</v>
       </c>
       <c r="S18">
-        <v>0.147039424432147</v>
+        <v>0.1109559222092312</v>
       </c>
       <c r="T18">
-        <v>0.147039424432147</v>
+        <v>0.1109559222092312</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H19">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I19">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J19">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N19">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O19">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P19">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q19">
-        <v>1.812919507479</v>
+        <v>1.574991427313333</v>
       </c>
       <c r="R19">
-        <v>16.316275567311</v>
+        <v>14.17492284582</v>
       </c>
       <c r="S19">
-        <v>0.03124617868668814</v>
+        <v>0.02159170531383203</v>
       </c>
       <c r="T19">
-        <v>0.03124617868668814</v>
+        <v>0.02159170531383203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H20">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I20">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J20">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N20">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O20">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P20">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q20">
-        <v>2.52706406889</v>
+        <v>2.437557519026667</v>
       </c>
       <c r="R20">
-        <v>22.74357662001</v>
+        <v>21.93801767124</v>
       </c>
       <c r="S20">
-        <v>0.04355466148579725</v>
+        <v>0.03341670483001856</v>
       </c>
       <c r="T20">
-        <v>0.04355466148579725</v>
+        <v>0.03341670483001857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.305657</v>
+      </c>
+      <c r="H21">
+        <v>0.916971</v>
+      </c>
+      <c r="I21">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J21">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.445246666666667</v>
+      </c>
+      <c r="N21">
+        <v>16.33574</v>
+      </c>
+      <c r="O21">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="P21">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="Q21">
+        <v>1.664377760393333</v>
+      </c>
+      <c r="R21">
+        <v>14.97939984354</v>
+      </c>
+      <c r="S21">
+        <v>0.02281711094428657</v>
+      </c>
+      <c r="T21">
+        <v>0.02281711094428657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.009495</v>
+      </c>
+      <c r="I22">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J22">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.358310000000001</v>
+      </c>
+      <c r="N22">
+        <v>28.07493</v>
+      </c>
+      <c r="O22">
+        <v>0.1719944618809179</v>
+      </c>
+      <c r="P22">
+        <v>0.1719944618809179</v>
+      </c>
+      <c r="Q22">
+        <v>3.149055717816667</v>
+      </c>
+      <c r="R22">
+        <v>28.34150146035</v>
+      </c>
+      <c r="S22">
+        <v>0.04317070042210994</v>
+      </c>
+      <c r="T22">
+        <v>0.04317070042210994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.009495</v>
+      </c>
+      <c r="I23">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J23">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>26.47935433333333</v>
+      </c>
+      <c r="N23">
+        <v>79.438063</v>
+      </c>
+      <c r="O23">
+        <v>0.4866586274141183</v>
+      </c>
+      <c r="P23">
+        <v>0.4866586274141184</v>
+      </c>
+      <c r="Q23">
+        <v>8.910258600909446</v>
+      </c>
+      <c r="R23">
+        <v>80.19232740818501</v>
+      </c>
+      <c r="S23">
+        <v>0.1221515715225539</v>
+      </c>
+      <c r="T23">
+        <v>0.122151571522554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.009495</v>
+      </c>
+      <c r="I24">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J24">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.152806666666667</v>
+      </c>
+      <c r="N24">
+        <v>15.45842</v>
+      </c>
+      <c r="O24">
+        <v>0.09470237786627494</v>
+      </c>
+      <c r="P24">
+        <v>0.09470237786627496</v>
+      </c>
+      <c r="Q24">
+        <v>1.733910855322222</v>
+      </c>
+      <c r="R24">
+        <v>15.6051976979</v>
+      </c>
+      <c r="S24">
+        <v>0.02377034666940052</v>
+      </c>
+      <c r="T24">
+        <v>0.02377034666940052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.322187</v>
-      </c>
-      <c r="H21">
-        <v>0.966561</v>
-      </c>
-      <c r="I21">
-        <v>0.3103852226781103</v>
-      </c>
-      <c r="J21">
-        <v>0.3103852226781102</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.317432666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.952298</v>
-      </c>
-      <c r="O21">
-        <v>0.09513216175939113</v>
-      </c>
-      <c r="P21">
-        <v>0.09513216175939115</v>
-      </c>
-      <c r="Q21">
-        <v>1.713207678575333</v>
-      </c>
-      <c r="R21">
-        <v>15.418869107178</v>
-      </c>
-      <c r="S21">
-        <v>0.02952761721153862</v>
-      </c>
-      <c r="T21">
-        <v>0.02952761721153862</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.009495</v>
+      </c>
+      <c r="I25">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J25">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.974813333333334</v>
+      </c>
+      <c r="N25">
+        <v>23.92444</v>
+      </c>
+      <c r="O25">
+        <v>0.146567460136225</v>
+      </c>
+      <c r="P25">
+        <v>0.146567460136225</v>
+      </c>
+      <c r="Q25">
+        <v>2.683511395311111</v>
+      </c>
+      <c r="R25">
+        <v>24.1516025578</v>
+      </c>
+      <c r="S25">
+        <v>0.03678850960649747</v>
+      </c>
+      <c r="T25">
+        <v>0.03678850960649747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.009495</v>
+      </c>
+      <c r="I26">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J26">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.445246666666667</v>
+      </c>
+      <c r="N26">
+        <v>16.33574</v>
+      </c>
+      <c r="O26">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="P26">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="Q26">
+        <v>1.832316427922222</v>
+      </c>
+      <c r="R26">
+        <v>16.4908478513</v>
+      </c>
+      <c r="S26">
+        <v>0.02511939790102694</v>
+      </c>
+      <c r="T26">
+        <v>0.02511939790102694</v>
       </c>
     </row>
   </sheetData>
